--- a/biology/Médecine/Maison_médicale_Jeanne-Garnier/Maison_médicale_Jeanne-Garnier.xlsx
+++ b/biology/Médecine/Maison_médicale_Jeanne-Garnier/Maison_médicale_Jeanne-Garnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maison_m%C3%A9dicale_Jeanne-Garnier</t>
+          <t>Maison_médicale_Jeanne-Garnier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison médicale Jeanne-Garnier est un établissement de soins palliatifs, fondé en 1874, qui accueille 1 100 malades par an, en priorité des personnes malades en phase avancée ou terminale de leur maladie[1]. Elle est située au 106, avenue Émile-Zola, dans le 15e arrondissement de Paris.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison médicale Jeanne-Garnier est un établissement de soins palliatifs, fondé en 1874, qui accueille 1 100 malades par an, en priorité des personnes malades en phase avancée ou terminale de leur maladie. Elle est située au 106, avenue Émile-Zola, dans le 15e arrondissement de Paris.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maison_m%C3%A9dicale_Jeanne-Garnier</t>
+          <t>Maison_médicale_Jeanne-Garnier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est gérée par l’Association des Dames du Calvaire, fondée par Jeanne Garnier[2] en 1842. Cette association a été rejointe par la communauté des Xavières en 1988[3].
-La Société française d'accompagnement et de soins palliatifs y a ses locaux[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est gérée par l’Association des Dames du Calvaire, fondée par Jeanne Garnier en 1842. Cette association a été rejointe par la communauté des Xavières en 1988.
+La Société française d'accompagnement et de soins palliatifs y a ses locaux.
 Le cardinal Lustiger et Jean Vanier sont décédés dans la Maison médicale Jeanne-Garnier.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maison_m%C3%A9dicale_Jeanne-Garnier</t>
+          <t>Maison_médicale_Jeanne-Garnier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle offre[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle offre :
 81 lits en soins palliatifs ;
 12 chambres en résidence temporaire.
-La maison médicale est aussi ouverte à toute personne atteinte d'une pathologie sévère et dans une situation complexe. Une centaine de bénévoles y aident à soutenir les malades et leur famille dans leur fin de vie[6].
-La maison médicale est un établissement privé à but non lucratif, d’intérêt collectif, qui participe au service public hospitalier depuis 1977[7].
+La maison médicale est aussi ouverte à toute personne atteinte d'une pathologie sévère et dans une situation complexe. Une centaine de bénévoles y aident à soutenir les malades et leur famille dans leur fin de vie.
+La maison médicale est un établissement privé à but non lucratif, d’intérêt collectif, qui participe au service public hospitalier depuis 1977.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maison_m%C3%A9dicale_Jeanne-Garnier</t>
+          <t>Maison_médicale_Jeanne-Garnier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Charte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1999, la Charte des Associations de l’œuvre du Calvaire est signée à Lyon[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1999, la Charte des Associations de l’œuvre du Calvaire est signée à Lyon.
 </t>
         </is>
       </c>
